--- a/T04_M2_D2_MDM_Metadata_files/T04_M2_D2_Dim_Product_metadata.xlsx
+++ b/T04_M2_D2_MDM_Metadata_files/T04_M2_D2_Dim_Product_metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SEIS732\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T04_M2_D2_MDM_Metadata_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCB820E-F677-4073-90D6-314AFD7028E9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A62330-8AF6-4696-AD96-092E03281900}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{555D514B-6EE8-4111-BA1A-D8C8218A2C9C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Vechicle_Color_Desc</t>
   </si>
@@ -66,51 +66,6 @@
     <t>Double coated green</t>
   </si>
   <si>
-    <t>VEHICLE_Make_KEY</t>
-  </si>
-  <si>
-    <t>VEHICLE_Make_Name</t>
-  </si>
-  <si>
-    <t>VEHICLE_Model_Key</t>
-  </si>
-  <si>
-    <t>VEHICLE_Model_Name</t>
-  </si>
-  <si>
-    <t>VEHICLE_Model_Desc</t>
-  </si>
-  <si>
-    <t>VEHICLE_Class_Key</t>
-  </si>
-  <si>
-    <t>VEHICLE_Class_Name</t>
-  </si>
-  <si>
-    <t>VEHICLE_Class_Desc</t>
-  </si>
-  <si>
-    <t>VEHICLE_Color_Key</t>
-  </si>
-  <si>
-    <t>VEHICLE_Color_Name</t>
-  </si>
-  <si>
-    <t>VEHICLE_Color_Abbreviation</t>
-  </si>
-  <si>
-    <t>VEHICLE_Retail_Price</t>
-  </si>
-  <si>
-    <t>VEHICLE_Wholesale_Price</t>
-  </si>
-  <si>
-    <t>VEHICLE_Serial_Number</t>
-  </si>
-  <si>
-    <t>VEHICLE_Model_Year</t>
-  </si>
-  <si>
     <t>Example Value</t>
   </si>
   <si>
@@ -166,6 +121,57 @@
   </si>
   <si>
     <t>Product_Dimension</t>
+  </si>
+  <si>
+    <t>Product_Make_KEY</t>
+  </si>
+  <si>
+    <t>Product_Make_Name</t>
+  </si>
+  <si>
+    <t>Product_Model_Key</t>
+  </si>
+  <si>
+    <t>Product_Model_Name</t>
+  </si>
+  <si>
+    <t>Product_Model_Desc</t>
+  </si>
+  <si>
+    <t>Product_Class_Key</t>
+  </si>
+  <si>
+    <t>Product_Class_Name</t>
+  </si>
+  <si>
+    <t>Product_Class_Desc</t>
+  </si>
+  <si>
+    <t>Product_KEY</t>
+  </si>
+  <si>
+    <t>Product_Color_Key</t>
+  </si>
+  <si>
+    <t>Product_Color_Name</t>
+  </si>
+  <si>
+    <t>Product_Color_Abbreviation</t>
+  </si>
+  <si>
+    <t>Product_Retail_Price</t>
+  </si>
+  <si>
+    <t>Product_Wholesale_Price</t>
+  </si>
+  <si>
+    <t>Product_Serial_Number</t>
+  </si>
+  <si>
+    <t>Product_Model_Year</t>
+  </si>
+  <si>
+    <t>Surrogate key, primary key for product</t>
   </si>
 </sst>
 </file>
@@ -175,7 +181,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +219,17 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -264,23 +281,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,44 +321,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,7 +683,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -699,31 +709,31 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="19">
+        <v>14</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="15">
         <v>2000</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>30</v>
+      <c r="C3" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
@@ -731,15 +741,15 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>31</v>
+      <c r="C4" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
@@ -747,15 +757,15 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>32</v>
+      <c r="C5" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
@@ -763,15 +773,15 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="1:8" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>33</v>
+      <c r="C6" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
@@ -779,151 +789,160 @@
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>34</v>
+      <c r="C7" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>35</v>
+      <c r="C8" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="11" t="s">
+    <row r="9" spans="1:8" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>36</v>
+      <c r="C9" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="11" t="s">
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>37</v>
+      <c r="C10" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="11" t="s">
+    <row r="11" spans="1:8" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="19">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="C14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="C15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="17">
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="20">
         <v>75000</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="17">
+      <c r="C16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="20">
         <v>60000</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="11">
+      <c r="C18" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="15">
         <v>2014</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C19" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
